--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>510170</t>
-  </si>
-  <si>
-    <t>160620</t>
-  </si>
-  <si>
-    <t>161715</t>
-  </si>
-  <si>
-    <t>国联安上证大宗商品股票ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证A股资源产业指数（LOF）</t>
-  </si>
-  <si>
-    <t>招商中证大宗商品股票指数（LOF）</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>97.81</t>
-  </si>
-  <si>
-    <t>94.14</t>
-  </si>
-  <si>
-    <t>94.85</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>0.0392</t>
-  </si>
-  <si>
-    <t>0.0284</t>
-  </si>
-  <si>
-    <t>0.0248</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1159,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.45</v>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,171 +455,477 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510170</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安上证大宗商品股票ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -646,7 +952,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -676,36 +982,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.2063</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -714,36 +1020,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +1057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -986,7 +1292,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1016,36 +1322,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.53</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2063</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1054,396 +1360,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6274</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160610</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华动力增长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>53.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2420</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2009</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1120</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160603</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华普天收益混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>67.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0774</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011331</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华远见成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>66.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001447</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘惠利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011332</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华远见成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1457,112 +1403,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.09</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -566,6 +583,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1057,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1397,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601958-金钼股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -583,6 +600,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安优嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安优嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1358,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +3577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +3709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +3917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
